--- a/Julio/27 julio/libres/PLANTILLA LISTA DE ASPIRANTES_TECLIBRES.xlsx
+++ b/Julio/27 julio/libres/PLANTILLA LISTA DE ASPIRANTES_TECLIBRES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Proyecto01TICs\Documents\Evaluatec2024\Julio\27 julio\libres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E712528F-2EF3-4616-BF46-67FE44E4DC7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC1E936-6536-4966-8201-2F2BEE67D2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D610CFFB-2790-104B-A52B-2B33694C28D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D610CFFB-2790-104B-A52B-2B33694C28D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -3102,13 +3102,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5925BC7A-0E73-734D-A0C9-B8A68F88FF64}" name="Tabla2" displayName="Tabla2" ref="A4:M469" totalsRowShown="0">
-  <autoFilter ref="A4:M469" xr:uid="{5925BC7A-0E73-734D-A0C9-B8A68F88FF64}">
-    <filterColumn colId="10">
-      <filters blank="1">
-        <filter val="13:00 a 16:00"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A4:M469" xr:uid="{5925BC7A-0E73-734D-A0C9-B8A68F88FF64}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{F5111305-CA2B-DF41-BA05-5C9A177B7523}" name=" "/>
     <tableColumn id="2" xr3:uid="{D956ADB6-2882-CB4B-9C6B-032AC358A5C1}" name="NOMBRE ASPIRANTE"/>
@@ -3428,20 +3422,20 @@
   <dimension ref="A1:O469"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="K226" sqref="K226"/>
+      <selection activeCell="A5" sqref="A5:A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="31.25" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="32.25" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="14" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="32.25" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="45.125" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="9" max="9" width="28.5" customWidth="1"/>
     <col min="10" max="10" width="22.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.375" customWidth="1"/>
@@ -3513,7 +3507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>210001</v>
       </c>
@@ -3554,7 +3548,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>110001</v>
       </c>
@@ -3597,7 +3591,7 @@
       <c r="N6" s="40"/>
       <c r="O6" s="40"/>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>160001</v>
       </c>
@@ -3638,7 +3632,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>230001</v>
       </c>
@@ -3679,7 +3673,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>230002</v>
       </c>
@@ -3720,7 +3714,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>170</v>
       </c>
@@ -3761,7 +3755,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>110002</v>
       </c>
@@ -3802,7 +3796,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>230003</v>
       </c>
@@ -3843,7 +3837,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
         <v>210002</v>
       </c>
@@ -3884,7 +3878,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="21">
         <v>210003</v>
       </c>
@@ -3925,7 +3919,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="21">
         <v>110003</v>
       </c>
@@ -3966,7 +3960,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="21">
         <v>230004</v>
       </c>
@@ -4007,7 +4001,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>171</v>
       </c>
@@ -4048,7 +4042,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>172</v>
       </c>
@@ -4089,7 +4083,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <v>160002</v>
       </c>
@@ -4130,7 +4124,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>160003</v>
       </c>
@@ -4171,7 +4165,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <v>160004</v>
       </c>
@@ -4212,7 +4206,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <v>210004</v>
       </c>
@@ -4253,7 +4247,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>110004</v>
       </c>
@@ -4294,7 +4288,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>173</v>
       </c>
@@ -4335,7 +4329,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>174</v>
       </c>
@@ -4376,7 +4370,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>160005</v>
       </c>
@@ -4417,7 +4411,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>175</v>
       </c>
@@ -4458,7 +4452,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <v>160006</v>
       </c>
@@ -4499,7 +4493,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <v>160007</v>
       </c>
@@ -4540,7 +4534,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>176</v>
       </c>
@@ -4581,7 +4575,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>177</v>
       </c>
@@ -4622,7 +4616,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>178</v>
       </c>
@@ -4663,7 +4657,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>179</v>
       </c>
@@ -4704,7 +4698,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <v>110005</v>
       </c>
@@ -4745,7 +4739,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
         <v>110006</v>
       </c>
@@ -4786,7 +4780,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>180</v>
       </c>
@@ -4827,7 +4821,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <v>160008</v>
       </c>
@@ -4868,7 +4862,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <v>110007</v>
       </c>
@@ -4909,7 +4903,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>110008</v>
       </c>
@@ -4950,7 +4944,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <v>170001</v>
       </c>
@@ -4989,7 +4983,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <v>160009</v>
       </c>
@@ -5030,7 +5024,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <v>110009</v>
       </c>
@@ -5071,7 +5065,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <v>110010</v>
       </c>
@@ -5112,7 +5106,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="44" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
         <v>181</v>
       </c>
@@ -5153,7 +5147,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="45" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
         <v>182</v>
       </c>
@@ -5194,7 +5188,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="46" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>183</v>
       </c>
@@ -5235,7 +5229,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
         <v>184</v>
       </c>
@@ -5276,7 +5270,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="21">
         <v>210005</v>
       </c>
@@ -5317,7 +5311,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
         <v>185</v>
       </c>
@@ -5358,7 +5352,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <v>210006</v>
       </c>
@@ -5399,7 +5393,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
         <v>186</v>
       </c>
@@ -5440,7 +5434,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>187</v>
       </c>
@@ -5481,7 +5475,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
         <v>188</v>
       </c>
@@ -5522,7 +5516,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
         <v>160010</v>
       </c>
@@ -5563,7 +5557,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
         <v>189</v>
       </c>
@@ -5604,7 +5598,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>210007</v>
       </c>
@@ -5645,7 +5639,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <v>230005</v>
       </c>
@@ -5686,7 +5680,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <v>230006</v>
       </c>
@@ -5727,7 +5721,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="21">
         <v>170002</v>
       </c>
@@ -5768,7 +5762,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>190</v>
       </c>
@@ -5809,7 +5803,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
         <v>191</v>
       </c>
@@ -5850,7 +5844,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
         <v>192</v>
       </c>
@@ -5891,7 +5885,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
         <v>193</v>
       </c>
@@ -5932,7 +5926,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
         <v>210008</v>
       </c>
@@ -5973,7 +5967,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="21">
         <v>210009</v>
       </c>
@@ -6014,7 +6008,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="21">
         <v>160011</v>
       </c>
@@ -6055,7 +6049,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
         <v>194</v>
       </c>
@@ -6096,7 +6090,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
         <v>195</v>
       </c>
@@ -6137,7 +6131,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
         <v>196</v>
       </c>
@@ -6178,7 +6172,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="21">
         <v>160012</v>
       </c>
@@ -6219,7 +6213,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="21">
         <v>210010</v>
       </c>
@@ -6260,7 +6254,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="21">
         <v>170003</v>
       </c>
@@ -6301,7 +6295,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="21">
         <v>170004</v>
       </c>
@@ -6342,7 +6336,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="74" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
         <v>197</v>
       </c>
@@ -6383,7 +6377,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="21">
         <v>210011</v>
       </c>
@@ -6424,7 +6418,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
         <v>198</v>
       </c>
@@ -6465,7 +6459,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="21">
         <v>210012</v>
       </c>
@@ -6506,7 +6500,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
         <v>199</v>
       </c>
@@ -6547,7 +6541,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
         <v>200</v>
       </c>
@@ -6588,7 +6582,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="80" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
         <v>201</v>
       </c>
@@ -6629,7 +6623,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
         <v>202</v>
       </c>
@@ -6670,7 +6664,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="21">
         <v>160013</v>
       </c>
@@ -6711,7 +6705,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
         <v>203</v>
       </c>
@@ -6752,7 +6746,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="84" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="22">
         <v>110011</v>
       </c>
@@ -6793,7 +6787,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="22">
         <v>110012</v>
       </c>
@@ -6834,7 +6828,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="22">
         <v>110013</v>
       </c>
@@ -6875,7 +6869,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
         <v>204</v>
       </c>
@@ -6916,7 +6910,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
         <v>205</v>
       </c>
@@ -6957,7 +6951,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
         <v>206</v>
       </c>
@@ -6998,7 +6992,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="21">
         <v>110014</v>
       </c>
@@ -7039,7 +7033,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
         <v>207</v>
       </c>
@@ -7080,7 +7074,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="22">
         <v>170005</v>
       </c>
@@ -7121,7 +7115,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
         <v>208</v>
       </c>
@@ -7162,7 +7156,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
         <v>209</v>
       </c>
@@ -7203,7 +7197,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="21">
         <v>230007</v>
       </c>
@@ -7244,7 +7238,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
         <v>210</v>
       </c>
@@ -7285,7 +7279,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
         <v>211</v>
       </c>
@@ -7326,7 +7320,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
         <v>212</v>
       </c>
@@ -7367,7 +7361,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
         <v>213</v>
       </c>
@@ -7408,7 +7402,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="21">
         <v>230008</v>
       </c>
@@ -7449,7 +7443,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
         <v>214</v>
       </c>
@@ -7490,7 +7484,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
         <v>215</v>
       </c>
@@ -7531,7 +7525,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="22">
         <v>230009</v>
       </c>
@@ -7572,7 +7566,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
         <v>216</v>
       </c>
@@ -7613,7 +7607,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="105" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="21">
         <v>230010</v>
       </c>
@@ -7654,7 +7648,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="106" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="21">
         <v>110015</v>
       </c>
@@ -7695,7 +7689,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
         <v>217</v>
       </c>
@@ -7736,7 +7730,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
         <v>218</v>
       </c>
@@ -7777,7 +7771,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="22">
         <v>170006</v>
       </c>
@@ -7818,7 +7812,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
         <v>219</v>
       </c>
@@ -7859,7 +7853,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="21">
         <v>160014</v>
       </c>
@@ -7900,7 +7894,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="21">
         <v>110016</v>
       </c>
@@ -7941,7 +7935,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="21">
         <v>160015</v>
       </c>
@@ -7982,7 +7976,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
         <v>220</v>
       </c>
@@ -8023,7 +8017,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
         <v>221</v>
       </c>
@@ -8064,7 +8058,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
         <v>222</v>
       </c>
@@ -8105,7 +8099,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="117" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="22">
         <v>110017</v>
       </c>
@@ -8146,7 +8140,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="21">
         <v>110018</v>
       </c>
@@ -8187,7 +8181,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="22">
         <v>110019</v>
       </c>
@@ -8228,7 +8222,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="22">
         <v>230011</v>
       </c>
@@ -8269,7 +8263,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="22">
         <v>210013</v>
       </c>
@@ -8310,7 +8304,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="22">
         <v>210014</v>
       </c>
@@ -8351,7 +8345,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
         <v>223</v>
       </c>
@@ -8392,7 +8386,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="21">
         <v>110020</v>
       </c>
@@ -8433,7 +8427,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="22">
         <v>230012</v>
       </c>
@@ -8474,7 +8468,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="22">
         <v>170007</v>
       </c>
@@ -8515,7 +8509,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="127" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
         <v>224</v>
       </c>
@@ -8556,7 +8550,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="128" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
         <v>225</v>
       </c>
@@ -8597,7 +8591,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="22">
         <v>110021</v>
       </c>
@@ -8638,7 +8632,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
         <v>226</v>
       </c>
@@ -8679,7 +8673,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="22">
         <v>230013</v>
       </c>
@@ -8720,7 +8714,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="132" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="22">
         <v>160016</v>
       </c>
@@ -8761,7 +8755,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="22">
         <v>110022</v>
       </c>
@@ -8802,7 +8796,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="22">
         <v>110023</v>
       </c>
@@ -8843,7 +8837,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
         <v>227</v>
       </c>
@@ -8884,7 +8878,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
         <v>228</v>
       </c>
@@ -8925,7 +8919,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="22">
         <v>210015</v>
       </c>
@@ -8966,7 +8960,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
         <v>229</v>
       </c>
@@ -9007,7 +9001,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" s="22">
         <v>110024</v>
       </c>
@@ -9048,7 +9042,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" s="22">
         <v>210016</v>
       </c>
@@ -9089,7 +9083,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="s">
         <v>230</v>
       </c>
@@ -9130,7 +9124,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
         <v>231</v>
       </c>
@@ -9171,7 +9165,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
         <v>232</v>
       </c>
@@ -9212,7 +9206,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="s">
         <v>233</v>
       </c>
@@ -9253,7 +9247,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="s">
         <v>234</v>
       </c>
@@ -9294,7 +9288,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
         <v>235</v>
       </c>
@@ -9335,7 +9329,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
         <v>236</v>
       </c>
@@ -9376,7 +9370,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
         <v>237</v>
       </c>
@@ -9417,7 +9411,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="s">
         <v>238</v>
       </c>
@@ -9458,7 +9452,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
         <v>239</v>
       </c>
@@ -9499,7 +9493,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" s="22">
         <v>160017</v>
       </c>
@@ -9540,7 +9534,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" s="22">
         <v>110025</v>
       </c>
@@ -9581,7 +9575,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="153" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153" s="22">
         <v>210017</v>
       </c>
@@ -9622,7 +9616,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" s="22">
         <v>110026</v>
       </c>
